--- a/StructureDefinition-profile-VerificationResult.xlsx
+++ b/StructureDefinition-profile-VerificationResult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.8235596-06:00</t>
+    <t>2026-02-09T22:05:43.40296-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -547,11 +547,20 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>VerificationResult.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for VerificationResult.status from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `VerificationResult.status` is mapped to FHIR R4 element `VerificationResult.status`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -3032,12 +3041,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3058,15 +3069,17 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3124,7 +3137,7 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>135</v>
@@ -3138,10 +3151,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3167,10 +3180,10 @@
         <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3221,7 +3234,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3244,10 +3257,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3270,13 +3283,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3327,7 +3340,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3350,10 +3363,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3379,10 +3392,10 @@
         <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3412,28 +3425,28 @@
         <v>108</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3456,10 +3469,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3485,10 +3498,10 @@
         <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3515,31 +3528,31 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3562,10 +3575,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3588,13 +3601,13 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3645,7 +3658,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3668,10 +3681,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3694,13 +3707,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3751,7 +3764,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3774,10 +3787,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3800,13 +3813,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3857,7 +3870,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3880,10 +3893,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3909,10 +3922,10 @@
         <v>150</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3942,28 +3955,28 @@
         <v>108</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3986,10 +3999,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4012,13 +4025,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4069,7 +4082,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4092,10 +4105,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4121,10 +4134,10 @@
         <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4193,15 +4206,15 @@
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4230,7 +4243,7 @@
         <v>131</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>133</v>
@@ -4301,19 +4314,19 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4335,10 +4348,10 @@
         <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>133</v>
@@ -4393,7 +4406,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4416,10 +4429,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4442,13 +4455,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4499,7 +4512,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4514,7 +4527,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4522,10 +4535,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4551,10 +4564,10 @@
         <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4581,31 +4594,31 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4628,10 +4641,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4657,10 +4670,10 @@
         <v>150</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4687,31 +4700,31 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4734,10 +4747,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4763,10 +4776,10 @@
         <v>150</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4796,28 +4809,28 @@
         <v>108</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4840,10 +4853,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4866,13 +4879,13 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4923,7 +4936,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -4946,10 +4959,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4975,10 +4988,10 @@
         <v>150</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5008,28 +5021,28 @@
         <v>108</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5052,10 +5065,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5081,10 +5094,10 @@
         <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5114,28 +5127,28 @@
         <v>108</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5158,10 +5171,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5184,13 +5197,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5241,7 +5254,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5264,10 +5277,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5293,10 +5306,10 @@
         <v>146</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5365,15 +5378,15 @@
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5402,7 +5415,7 @@
         <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>133</v>
@@ -5473,19 +5486,19 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5507,10 +5520,10 @@
         <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>133</v>
@@ -5565,7 +5578,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5588,10 +5601,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5614,13 +5627,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5671,7 +5684,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5694,10 +5707,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5720,13 +5733,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5777,7 +5790,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5800,10 +5813,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5829,10 +5842,10 @@
         <v>150</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5859,13 +5872,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -5883,7 +5896,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5906,10 +5919,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5932,13 +5945,13 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5989,7 +6002,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6012,10 +6025,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6041,10 +6054,10 @@
         <v>146</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6095,7 +6108,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6118,10 +6131,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6147,10 +6160,10 @@
         <v>146</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6201,7 +6214,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6224,10 +6237,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6250,13 +6263,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6307,7 +6320,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6330,10 +6343,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6356,13 +6369,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6413,7 +6426,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6436,10 +6449,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6462,13 +6475,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6519,7 +6532,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6542,10 +6555,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6571,10 +6584,10 @@
         <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6643,15 +6656,15 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6680,7 +6693,7 @@
         <v>131</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>133</v>
@@ -6751,19 +6764,19 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -6785,10 +6798,10 @@
         <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>133</v>
@@ -6843,7 +6856,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -6866,10 +6879,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6892,13 +6905,13 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6949,7 +6962,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>84</v>
@@ -6972,10 +6985,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7001,10 +7014,10 @@
         <v>146</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7055,7 +7068,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7078,10 +7091,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7104,13 +7117,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7161,7 +7174,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-profile-VerificationResult.xlsx
+++ b/StructureDefinition-profile-VerificationResult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.40296-06:00</t>
+    <t>2026-02-17T14:42:26.9429865-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -560,7 +560,7 @@
     <t>Cross-version extension for VerificationResult.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `VerificationResult.status` is mapped to FHIR R4 element `VerificationResult.status`.</t>
+    <t>Element `VerificationResult.status` has is mapped to FHIR R4 element `VerificationResult.status`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -700,7 +700,20 @@
     <t>VerificationResult.primarySource.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>VerificationResult.primarySource.extension:primarySource</t>
+  </si>
+  <si>
+    <t>primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.primarySource|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for VerificationResult.primarySource from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `VerificationResult.primarySource` has is mapped to FHIR R4 element `VerificationResult.primarySource`, but has no comparisons.</t>
   </si>
   <si>
     <t>VerificationResult.primarySource.modifierExtension</t>
@@ -835,6 +848,22 @@
     <t>VerificationResult.attestation.extension</t>
   </si>
   <si>
+    <t>VerificationResult.attestation.extension:attestation</t>
+  </si>
+  <si>
+    <t>attestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.attestation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for VerificationResult.attestation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `VerificationResult.attestation` has is mapped to FHIR R4 element `VerificationResult.attestation`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>VerificationResult.attestation.modifierExtension</t>
   </si>
   <si>
@@ -931,6 +960,22 @@
   </si>
   <si>
     <t>VerificationResult.validator.extension</t>
+  </si>
+  <si>
+    <t>VerificationResult.validator.extension:validator</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.validator|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for VerificationResult.validator from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `VerificationResult.validator` has is mapped to FHIR R4 element `VerificationResult.validator`, but has no comparisons.</t>
   </si>
   <si>
     <t>VerificationResult.validator.modifierExtension</t>
@@ -1271,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL55"/>
+  <dimension ref="A1:AL58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1280,9 +1325,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.90234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.69921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1290,7 +1335,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.59765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4218,7 +4263,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4240,14 +4285,12 @@
         <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4284,16 +4327,14 @@
         <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>170</v>
@@ -4314,19 +4355,21 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>218</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4339,26 +4382,24 @@
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4406,7 +4447,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4415,7 +4456,7 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>135</v>
@@ -4424,47 +4465,51 @@
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4512,33 +4557,33 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4549,7 +4594,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4558,10 +4603,10 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>232</v>
@@ -4594,13 +4639,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -4618,13 +4663,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -4633,7 +4678,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4641,10 +4686,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4670,10 +4715,10 @@
         <v>150</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4703,11 +4748,11 @@
         <v>192</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4724,7 +4769,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4747,10 +4792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4761,7 +4806,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4770,16 +4815,16 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4806,14 +4851,14 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
       </c>
@@ -4830,13 +4875,13 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -4853,10 +4898,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4879,13 +4924,13 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4912,13 +4957,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -4936,7 +4981,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -4959,10 +5004,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4982,16 +5027,16 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5018,13 +5063,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5042,7 +5087,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5065,10 +5110,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5079,7 +5124,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5088,16 +5133,16 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5127,11 +5172,11 @@
         <v>108</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5148,13 +5193,13 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
@@ -5171,10 +5216,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5185,7 +5230,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5197,13 +5242,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5230,13 +5275,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5254,13 +5299,13 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
@@ -5277,10 +5322,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5303,13 +5348,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5360,7 +5405,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5372,32 +5417,32 @@
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>218</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5409,17 +5454,15 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -5468,19 +5511,19 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5491,14 +5534,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5511,26 +5554,22 @@
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5566,19 +5605,17 @@
         <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5596,17 +5633,19 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>75</v>
       </c>
@@ -5624,18 +5663,20 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -5684,19 +5725,19 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -5707,42 +5748,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -5790,33 +5835,33 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5839,13 +5884,13 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5872,13 +5917,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -5896,7 +5941,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5919,10 +5964,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5945,13 +5990,13 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6002,7 +6047,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6025,10 +6070,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6048,16 +6093,16 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6084,13 +6129,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6108,7 +6153,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6131,10 +6176,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6154,16 +6199,16 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6214,7 +6259,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6237,10 +6282,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6263,13 +6308,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6320,7 +6365,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6343,10 +6388,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6369,13 +6414,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6426,7 +6471,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6449,10 +6494,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6463,7 +6508,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6475,13 +6520,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6532,13 +6577,13 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -6555,10 +6600,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6581,13 +6626,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6638,7 +6683,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -6650,25 +6695,25 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>218</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -6687,17 +6732,15 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -6746,7 +6789,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -6758,57 +6801,53 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>218</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
       </c>
@@ -6856,33 +6895,33 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>127</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6890,10 +6929,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -6905,13 +6944,13 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>299</v>
+        <v>166</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6950,31 +6989,29 @@
         <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -6985,12 +7022,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>75</v>
       </c>
@@ -6999,7 +7038,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7011,15 +7050,17 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7068,19 +7109,19 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -7091,42 +7132,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
@@ -7174,24 +7219,342 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AI55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="G56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-VerificationResult.xlsx
+++ b/StructureDefinition-profile-VerificationResult.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9429865-06:00</t>
+    <t>2026-02-20T11:59:20.9811951-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/VerificationResult|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/VerificationResult</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -553,7 +553,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.status}
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>primarySource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.primarySource|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.primarySource}
 </t>
   </si>
   <si>
@@ -854,7 +854,7 @@
     <t>attestation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.attestation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.attestation}
 </t>
   </si>
   <si>
@@ -968,7 +968,7 @@
     <t>validator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.validator|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.validator}
 </t>
   </si>
   <si>
@@ -1335,7 +1335,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.59765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-VerificationResult.xlsx
+++ b/StructureDefinition-profile-VerificationResult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9811951-06:00</t>
+    <t>2026-02-21T13:36:54.3884362-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/VerificationResult</t>
+    <t>http://hl7.org/fhir/StructureDefinition/VerificationResult|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -553,14 +553,14 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for VerificationResult.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `VerificationResult.status` has is mapped to FHIR R4 element `VerificationResult.status`, but has no comparisons.</t>
+    <t>Element `VerificationResult.status` is mapped to FHIR R4 element `VerificationResult.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -700,20 +700,7 @@
     <t>VerificationResult.primarySource.extension</t>
   </si>
   <si>
-    <t>VerificationResult.primarySource.extension:primarySource</t>
-  </si>
-  <si>
-    <t>primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.primarySource}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for VerificationResult.primarySource from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `VerificationResult.primarySource` has is mapped to FHIR R4 element `VerificationResult.primarySource`, but has no comparisons.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>VerificationResult.primarySource.modifierExtension</t>
@@ -848,22 +835,6 @@
     <t>VerificationResult.attestation.extension</t>
   </si>
   <si>
-    <t>VerificationResult.attestation.extension:attestation</t>
-  </si>
-  <si>
-    <t>attestation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.attestation}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for VerificationResult.attestation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `VerificationResult.attestation` has is mapped to FHIR R4 element `VerificationResult.attestation`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>VerificationResult.attestation.modifierExtension</t>
   </si>
   <si>
@@ -960,22 +931,6 @@
   </si>
   <si>
     <t>VerificationResult.validator.extension</t>
-  </si>
-  <si>
-    <t>VerificationResult.validator.extension:validator</t>
-  </si>
-  <si>
-    <t>validator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VerificationResult.validator}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for VerificationResult.validator from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `VerificationResult.validator` has is mapped to FHIR R4 element `VerificationResult.validator`, but has no comparisons.</t>
   </si>
   <si>
     <t>VerificationResult.validator.modifierExtension</t>
@@ -1316,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL58"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1325,9 +1280,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.90234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.69921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1335,7 +1290,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4263,7 +4218,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4285,12 +4240,14 @@
         <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4327,14 +4284,16 @@
         <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>170</v>
@@ -4355,21 +4314,19 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C29" t="s" s="2">
         <v>221</v>
       </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4382,24 +4339,26 @@
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4447,7 +4406,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4456,7 +4415,7 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>135</v>
@@ -4465,51 +4424,47 @@
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4557,33 +4512,33 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4594,7 +4549,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4603,10 +4558,10 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>232</v>
@@ -4639,13 +4594,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -4663,13 +4618,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -4678,7 +4633,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4686,10 +4641,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4715,10 +4670,10 @@
         <v>150</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4748,10 +4703,10 @@
         <v>192</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4769,7 +4724,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4792,10 +4747,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4806,7 +4761,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4815,16 +4770,16 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4851,13 +4806,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -4875,13 +4830,13 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -4898,10 +4853,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4924,13 +4879,13 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4957,13 +4912,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -4981,7 +4936,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5004,10 +4959,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5027,16 +4982,16 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5063,13 +5018,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5087,7 +5042,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5110,10 +5065,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5124,7 +5079,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5133,16 +5088,16 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5172,10 +5127,10 @@
         <v>108</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5193,13 +5148,13 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
@@ -5216,10 +5171,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5230,7 +5185,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5242,13 +5197,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5275,13 +5230,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5299,13 +5254,13 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
@@ -5322,10 +5277,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5348,13 +5303,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5405,7 +5360,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5417,32 +5372,32 @@
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5454,15 +5409,17 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -5511,19 +5468,19 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5534,14 +5491,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5554,22 +5511,26 @@
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5605,17 +5566,19 @@
         <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5633,19 +5596,17 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>75</v>
       </c>
@@ -5663,20 +5624,18 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -5725,19 +5684,19 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -5748,46 +5707,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -5835,33 +5790,33 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5884,13 +5839,13 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5917,13 +5872,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -5941,7 +5896,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5964,10 +5919,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5990,13 +5945,13 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6047,7 +6002,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6070,10 +6025,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6093,16 +6048,16 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6129,13 +6084,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6153,7 +6108,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6176,10 +6131,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6199,16 +6154,16 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6259,7 +6214,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6282,10 +6237,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6308,13 +6263,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6365,7 +6320,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6388,10 +6343,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6414,13 +6369,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6471,7 +6426,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6494,10 +6449,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6508,7 +6463,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6520,13 +6475,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6577,13 +6532,13 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -6600,10 +6555,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6626,13 +6581,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6683,7 +6638,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -6695,25 +6650,25 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -6732,15 +6687,17 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -6789,7 +6746,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -6801,53 +6758,57 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
       </c>
@@ -6895,33 +6856,33 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>218</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6929,10 +6890,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -6944,13 +6905,13 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6989,29 +6950,31 @@
         <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7022,14 +6985,12 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7038,7 +6999,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7050,17 +7011,15 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>307</v>
+        <v>146</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7109,19 +7068,19 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -7132,46 +7091,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
@@ -7219,342 +7174,24 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL58" t="s" s="2">
         <v>75</v>
       </c>
     </row>
